--- a/biology/Botanique/Bosque_del_Cedro/Bosque_del_Cedro.xlsx
+++ b/biology/Botanique/Bosque_del_Cedro/Bosque_del_Cedro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bosque del Cedro est une forêt humide de l'île de la Gomera dans l'archipel des Canaries (Espagne).
 </t>
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bosque del Cedro fait partie du Parc national de Garajonay repris sur la liste du Patrimoine mondial de l'UNESCO. Il se situe au nord-est de ce parc et fait partie de la commune de Hermigua.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le parc national de Garajonay, le Bosque del Cedro est considéré comme un des endroits les plus représentatifs de la laurisilva (forêt humide composée de plusieurs espèces à feuilles pérennes qui couvrait pratiquement toute l'Europe au Tertiaire) et un des lieux les plus appréciés par les visiteurs.
 </t>
@@ -573,7 +589,9 @@
           <t>Visite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs circuits balisés de distances variées peuvent être parcourus par les randonneurs. Il existe même un parcours d'environ 2 km qui peut être réalisé à vitesse très réduite en voiture sur une surface dallée pour aboutir au hameau d'El Cedro (29 habitants).
  Portail des îles Canaries   Portail du bois et de la forêt                    </t>
